--- a/trunk/Tools/R&D price.xlsx
+++ b/trunk/Tools/R&D price.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Work on X</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Y Grade</t>
+  </si>
+  <si>
+    <t>current grade</t>
   </si>
 </sst>
 </file>
@@ -302,7 +305,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -314,15 +317,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1"/>
@@ -334,6 +328,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
@@ -355,6 +359,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -680,38 +689,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q21"/>
+  <dimension ref="A2:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="17" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="2.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17">
-      <c r="B3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="21" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H2" s="23"/>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="21">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18">
         <v>40000</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="18">
         <v>70000</v>
       </c>
       <c r="D4" t="s">
@@ -720,73 +735,73 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="13"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="22">
-        <v>1</v>
-      </c>
-      <c r="B5" s="20">
-        <v>0</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0</v>
-      </c>
-      <c r="G5" s="17" t="s">
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="22"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>1</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>1</v>
-      </c>
-      <c r="J5" s="15">
-        <v>2</v>
-      </c>
-      <c r="K5" s="15">
-        <v>3</v>
-      </c>
-      <c r="L5" s="15">
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12">
+        <v>2</v>
+      </c>
+      <c r="K5" s="12">
+        <v>3</v>
+      </c>
+      <c r="L5" s="12">
         <v>4</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="12">
         <v>5</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="12">
         <v>6</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="12">
         <v>7</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="12">
         <v>8</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="22">
-        <v>2</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>2</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="G6" s="9">
         <v>0</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="16">
         <v>1</v>
       </c>
       <c r="I6" s="1">
@@ -817,12 +832,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="22">
-        <v>3</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>3</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="G7" s="9">
         <v>1</v>
       </c>
@@ -841,13 +856,13 @@
       <c r="L7" s="4">
         <v>4</v>
       </c>
-      <c r="M7" s="18">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18">
-        <v>0</v>
-      </c>
-      <c r="O7" s="18">
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15">
         <v>0</v>
       </c>
       <c r="P7" s="4">
@@ -857,12 +872,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="22">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
         <v>4</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="G8" s="9">
         <v>2</v>
       </c>
@@ -881,28 +896,28 @@
       <c r="L8" s="4">
         <v>3</v>
       </c>
-      <c r="M8" s="18">
-        <v>0</v>
-      </c>
-      <c r="N8" s="18">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18">
-        <v>0</v>
-      </c>
-      <c r="P8" s="18">
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
         <v>0</v>
       </c>
       <c r="Q8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="22">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
         <v>5</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="G9" s="9">
         <v>3</v>
       </c>
@@ -930,19 +945,19 @@
       <c r="O9" s="4">
         <v>5</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="15">
         <v>0</v>
       </c>
       <c r="Q9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="22">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
         <v>6</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="G10" s="9">
         <v>4</v>
       </c>
@@ -970,29 +985,29 @@
       <c r="O10" s="4">
         <v>4</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="15">
         <v>0</v>
       </c>
       <c r="Q10" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="22">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
         <v>7</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="G11" s="9">
         <v>5</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11" s="18">
-        <v>0</v>
-      </c>
-      <c r="J11" s="18">
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
         <v>0</v>
       </c>
       <c r="K11" s="4">
@@ -1010,35 +1025,35 @@
       <c r="O11" s="4">
         <v>3</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="15">
         <v>0</v>
       </c>
       <c r="Q11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="22">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
         <v>8</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="G12" s="9">
         <v>6</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="18">
-        <v>0</v>
-      </c>
-      <c r="J12" s="18">
-        <v>0</v>
-      </c>
-      <c r="K12" s="18">
-        <v>0</v>
-      </c>
-      <c r="L12" s="18">
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
         <v>0</v>
       </c>
       <c r="M12" s="4">
@@ -1057,28 +1072,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="22">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
         <v>9</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="G13" s="9">
         <v>7</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="I13" s="18">
-        <v>0</v>
-      </c>
-      <c r="J13" s="18">
-        <v>0</v>
-      </c>
-      <c r="K13" s="18">
-        <v>0</v>
-      </c>
-      <c r="L13" s="18">
+      <c r="I13" s="15">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
         <v>0</v>
       </c>
       <c r="M13" s="4">
@@ -1097,12 +1112,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="22">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
         <v>10</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="G14" s="9">
         <v>8</v>
       </c>
@@ -1115,16 +1130,16 @@
       <c r="J14" s="4">
         <v>0</v>
       </c>
-      <c r="K14" s="18">
-        <v>0</v>
-      </c>
-      <c r="L14" s="18">
-        <v>0</v>
-      </c>
-      <c r="M14" s="18">
-        <v>0</v>
-      </c>
-      <c r="N14" s="18">
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0</v>
+      </c>
+      <c r="N14" s="15">
         <v>0</v>
       </c>
       <c r="O14" s="4">
@@ -1137,12 +1152,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="22">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
         <v>11</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="G15" s="10">
         <v>9</v>
       </c>
@@ -1177,47 +1192,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="22">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
         <v>12</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="22">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
         <v>13</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="22">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
         <v>14</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="22">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
         <v>15</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="22">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
         <v>16</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="22">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
         <v>17</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/trunk/Tools/R&D price.xlsx
+++ b/trunk/Tools/R&D price.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Work on X</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>current grade</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -689,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q21"/>
+  <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1234,6 +1237,19 @@
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <f>SUM(B5:B21)</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f>SUM(C5:C21)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H4:Q4"/>
